--- a/rrd/AppData/DefineTeamSetup_account.xlsx
+++ b/rrd/AppData/DefineTeamSetup_account.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RRD_Anshu\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B6E656-CCF9-4EF6-A839-C1D19C83452A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98477AA-55C8-4A89-80CB-A640183FD769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyword" sheetId="1" r:id="rId1"/>
     <sheet name="RRDTeam" sheetId="2" r:id="rId2"/>
     <sheet name="TeamNewCriteria" sheetId="3" r:id="rId3"/>
     <sheet name="RRDUser" sheetId="4" r:id="rId4"/>
-    <sheet name="Accountconfig9" sheetId="5" r:id="rId5"/>
+    <sheet name="Accountconfig99" sheetId="5" r:id="rId5"/>
     <sheet name="Accountconfig10" sheetId="6" r:id="rId6"/>
-    <sheet name="Accountconfig11" sheetId="7" r:id="rId7"/>
-    <sheet name="Accountconfig12" sheetId="8" r:id="rId8"/>
+    <sheet name="Accountconfig9" sheetId="8" r:id="rId7"/>
+    <sheet name="Accountconfig11" sheetId="7" r:id="rId8"/>
+    <sheet name="Accountconfig111" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="69">
   <si>
     <t>Team</t>
   </si>
@@ -190,9 +192,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Customer Priority,(CustomerPriority__c)</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -239,13 +238,16 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>Customer Priority,(Customer_Priority__c)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,7 +270,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -278,6 +286,7 @@
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -318,16 +327,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,77 +625,89 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCFC194-653F-4C6F-AA21-EA959EB4FBE9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -694,18 +717,18 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -719,7 +742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -733,7 +756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -747,7 +770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.1</v>
       </c>
@@ -761,7 +784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.0999999999999996</v>
       </c>
@@ -775,7 +798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.0999999999999996</v>
       </c>
@@ -789,7 +812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.1</v>
       </c>
@@ -803,7 +826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7.1</v>
       </c>
@@ -817,7 +840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8.1</v>
       </c>
@@ -831,7 +854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9.1</v>
       </c>
@@ -845,7 +868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10.1</v>
       </c>
@@ -859,7 +882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11.1</v>
       </c>
@@ -873,7 +896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12.1</v>
       </c>
@@ -897,21 +920,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39618776-C4DD-4591-9271-6FE4D34B0E94}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -931,207 +954,219 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="C12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1146,23 +1181,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E83EB04-A337-4659-8733-EF9B069BDA8D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1188,523 +1223,523 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="B8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="B12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="B13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="B14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="B15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="B19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="B21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1719,47 +1754,48 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>68</v>
+      <c r="B2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1771,29 +1807,29 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1813,43 +1849,46 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F37B5CF-F928-4316-81D2-1715BED573B2}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5964C32A-B320-457B-BE48-8E4F380B33BA}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
+      <c r="C2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1858,38 +1897,88 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87ACE74D-C5EF-4FFD-89E5-F6E42EDCCB47}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F37B5CF-F928-4316-81D2-1715BED573B2}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA34C50-52AD-48B1-A762-2005E2CAEEA0}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
